--- a/Feinplanung(Grow It).xlsx
+++ b/Feinplanung(Grow It).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Feinplanung</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>Pflegearten</t>
+  </si>
+  <si>
+    <t>Recherche</t>
   </si>
 </sst>
 </file>
@@ -133,7 +136,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -157,6 +160,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -164,9 +180,7 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -179,25 +193,24 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
@@ -218,9 +231,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -258,9 +271,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -295,7 +308,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -330,7 +343,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -504,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,6 +528,12 @@
     <col min="1" max="1" width="35.7109375" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="59.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
@@ -546,32 +565,32 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="5" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -579,51 +598,221 @@
       <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="9" t="s">
         <v>14</v>
       </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="9" t="s">
         <v>15</v>
       </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="9" t="s">
         <v>17</v>
       </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
         <v>22</v>
       </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Feinplanung(Grow It).xlsx
+++ b/Feinplanung(Grow It).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>Feinplanung</t>
   </si>
@@ -85,7 +85,22 @@
     <t>Pflegearten</t>
   </si>
   <si>
-    <t>Recherche</t>
+    <t>Matus</t>
+  </si>
+  <si>
+    <t>Xiang</t>
+  </si>
+  <si>
+    <t>Wang</t>
+  </si>
+  <si>
+    <t>Alle</t>
+  </si>
+  <si>
+    <t>Upgrades</t>
+  </si>
+  <si>
+    <t>Matus, Wang, Xiang</t>
   </si>
 </sst>
 </file>
@@ -136,7 +151,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -160,19 +175,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -180,7 +182,9 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -193,24 +197,25 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
@@ -231,9 +236,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -271,9 +276,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -308,7 +313,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -343,7 +348,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -517,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,12 +533,6 @@
     <col min="1" max="1" width="35.7109375" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="59.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
@@ -565,32 +564,32 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -598,221 +597,110 @@
       <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-    </row>
-    <row r="13" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
+      <c r="A14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
+      <c r="A15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
+      <c r="A16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Feinplanung(Grow It).xlsx
+++ b/Feinplanung(Grow It).xlsx
@@ -206,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -218,6 +218,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -525,7 +526,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,6 +534,8 @@
     <col min="1" max="1" width="35.7109375" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="59.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
@@ -608,6 +611,15 @@
       <c r="C7" t="s">
         <v>24</v>
       </c>
+      <c r="D7" s="9">
+        <v>42299</v>
+      </c>
+      <c r="E7" s="9">
+        <v>42313</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
@@ -619,6 +631,15 @@
       <c r="C8" t="s">
         <v>23</v>
       </c>
+      <c r="D8" s="9">
+        <v>42299</v>
+      </c>
+      <c r="E8" s="9">
+        <v>42313</v>
+      </c>
+      <c r="F8">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
@@ -630,6 +651,15 @@
       <c r="C9" t="s">
         <v>24</v>
       </c>
+      <c r="D9" s="9">
+        <v>42299</v>
+      </c>
+      <c r="E9" s="9">
+        <v>42320</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
@@ -641,6 +671,15 @@
       <c r="C10" t="s">
         <v>25</v>
       </c>
+      <c r="D10" s="9">
+        <v>42313</v>
+      </c>
+      <c r="E10" s="9">
+        <v>42327</v>
+      </c>
+      <c r="F10">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
@@ -652,6 +691,15 @@
       <c r="C11" t="s">
         <v>24</v>
       </c>
+      <c r="D11" s="9">
+        <v>42313</v>
+      </c>
+      <c r="E11" s="9">
+        <v>42327</v>
+      </c>
+      <c r="F11">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
@@ -668,6 +716,15 @@
       <c r="C13" t="s">
         <v>28</v>
       </c>
+      <c r="D13" s="9">
+        <v>42299</v>
+      </c>
+      <c r="E13" s="9">
+        <v>42300</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
@@ -679,6 +736,15 @@
       <c r="C14" t="s">
         <v>23</v>
       </c>
+      <c r="D14" s="9">
+        <v>42320</v>
+      </c>
+      <c r="E14" s="9">
+        <v>42334</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
@@ -690,6 +756,15 @@
       <c r="C15" t="s">
         <v>25</v>
       </c>
+      <c r="D15" s="9">
+        <v>42327</v>
+      </c>
+      <c r="E15" s="9">
+        <v>42311</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
@@ -700,6 +775,15 @@
       </c>
       <c r="C16" t="s">
         <v>24</v>
+      </c>
+      <c r="D16" s="9">
+        <v>42327</v>
+      </c>
+      <c r="E16" s="9">
+        <v>42311</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Feinplanung(Grow It).xlsx
+++ b/Feinplanung(Grow It).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>Feinplanung</t>
   </si>
@@ -101,6 +101,12 @@
   </si>
   <si>
     <t>Matus, Wang, Xiang</t>
+  </si>
+  <si>
+    <t>Baumeigenschaften</t>
+  </si>
+  <si>
+    <t>Wettereigenschaften, Klimaeigenschaften</t>
   </si>
 </sst>
 </file>
@@ -237,9 +243,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -277,9 +283,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -314,7 +320,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -349,7 +355,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -523,15 +529,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="1" max="1" width="40.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="59.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
@@ -786,6 +792,19 @@
         <v>10</v>
       </c>
     </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Feinplanung(Grow It).xlsx
+++ b/Feinplanung(Grow It).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
   <si>
     <t>Feinplanung</t>
   </si>
@@ -64,9 +64,6 @@
     <t>Spieloberfläche</t>
   </si>
   <si>
-    <t>Landschaften</t>
-  </si>
-  <si>
     <t>Bäume</t>
   </si>
   <si>
@@ -94,19 +91,34 @@
     <t>Wang</t>
   </si>
   <si>
-    <t>Alle</t>
-  </si>
-  <si>
     <t>Upgrades</t>
   </si>
   <si>
-    <t>Matus, Wang, Xiang</t>
-  </si>
-  <si>
-    <t>Baumeigenschaften</t>
-  </si>
-  <si>
     <t>Wettereigenschaften, Klimaeigenschaften</t>
+  </si>
+  <si>
+    <t>Bäumearten</t>
+  </si>
+  <si>
+    <t>Baumeigenschaften, Verhalten bei Wetteränderung</t>
+  </si>
+  <si>
+    <t>XNA Framework</t>
+  </si>
+  <si>
+    <t>Xiang, Matus, Wang</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Spieloberfläche, Tastenplatzierung</t>
+  </si>
+  <si>
+    <t>Hauptmenü, Hintergrund, Farbgestaltung</t>
+  </si>
+  <si>
+    <t>Landschaften, Aussehen (animierend?)</t>
   </si>
 </sst>
 </file>
@@ -157,7 +169,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -208,11 +220,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -225,6 +259,11 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -529,19 +568,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
     <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
@@ -577,7 +619,7 @@
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -606,30 +648,34 @@
       <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="B6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" s="9">
-        <v>42299</v>
+        <v>42275</v>
       </c>
       <c r="E7" s="9">
-        <v>42313</v>
+        <v>42305</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="G7" s="9">
+        <v>42291</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -638,44 +684,50 @@
         <v>23</v>
       </c>
       <c r="D8" s="9">
-        <v>42299</v>
+        <v>42285</v>
       </c>
       <c r="E8" s="9">
         <v>42313</v>
       </c>
       <c r="F8">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="9">
+        <v>42291</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="9">
-        <v>42299</v>
+        <v>42285</v>
       </c>
       <c r="E9" s="9">
-        <v>42320</v>
+        <v>42305</v>
       </c>
       <c r="F9">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="G9" s="9">
+        <v>42285</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D10" s="9">
         <v>42313</v>
@@ -689,13 +741,13 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11" s="9">
         <v>42313</v>
@@ -709,7 +761,7 @@
     </row>
     <row r="12" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -717,19 +769,19 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D13" s="9">
-        <v>42299</v>
+        <v>42320</v>
       </c>
       <c r="E13" s="9">
-        <v>42300</v>
+        <v>42334</v>
       </c>
       <c r="F13">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -737,73 +789,159 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14" s="9">
-        <v>42320</v>
+        <v>42329</v>
       </c>
       <c r="E14" s="9">
-        <v>42334</v>
+        <v>42350</v>
       </c>
       <c r="F14">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
         <v>22</v>
       </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D15" s="9">
-        <v>42327</v>
+        <v>42341</v>
       </c>
       <c r="E15" s="9">
-        <v>42311</v>
+        <v>42352</v>
       </c>
       <c r="F15">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
         <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="9">
+        <v>42356</v>
+      </c>
+      <c r="E16" s="9">
+        <v>42368</v>
+      </c>
+      <c r="F16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="9">
-        <v>42327</v>
-      </c>
-      <c r="E16" s="9">
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="9">
+        <v>42309</v>
+      </c>
+      <c r="E17" s="9">
+        <v>42320</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="9">
+        <v>42297</v>
+      </c>
+      <c r="E18" s="9">
+        <v>42309</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="9">
         <v>42311</v>
       </c>
-      <c r="F16">
+      <c r="E21" s="9">
+        <v>42314</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="9">
+        <v>42276</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
+      <c r="D23" s="9">
+        <v>42297</v>
+      </c>
+      <c r="E23" s="9">
+        <v>42311</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Feinplanung(Grow It).xlsx
+++ b/Feinplanung(Grow It).xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>Feinplanung</t>
   </si>
@@ -55,9 +55,6 @@
     <t>Ist-Stunden</t>
   </si>
   <si>
-    <t>Design</t>
-  </si>
-  <si>
     <t>Hauptmenü</t>
   </si>
   <si>
@@ -119,6 +116,36 @@
   </si>
   <si>
     <t>Landschaften, Aussehen (animierend?)</t>
+  </si>
+  <si>
+    <t>Logo</t>
+  </si>
+  <si>
+    <t>Matus, Wang, Xiang</t>
+  </si>
+  <si>
+    <t>1 h</t>
+  </si>
+  <si>
+    <t>Entwürfe</t>
+  </si>
+  <si>
+    <t>5h</t>
+  </si>
+  <si>
+    <t>Xiang, Matus</t>
+  </si>
+  <si>
+    <t>Xiang, Wang</t>
+  </si>
+  <si>
+    <t>Wang, Matus</t>
+  </si>
+  <si>
+    <t>Matus, Wang</t>
+  </si>
+  <si>
+    <t>Matus, Xiang</t>
   </si>
 </sst>
 </file>
@@ -568,21 +595,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
     <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -646,300 +672,320 @@
     </row>
     <row r="6" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D7" s="9">
+        <v>42268</v>
+      </c>
+      <c r="E7" s="9">
         <v>42275</v>
-      </c>
-      <c r="E7" s="9">
-        <v>42305</v>
       </c>
       <c r="F7">
         <v>6</v>
       </c>
       <c r="G7" s="9">
-        <v>42291</v>
+        <v>42274</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D8" s="9">
-        <v>42285</v>
+        <v>42275</v>
       </c>
       <c r="E8" s="9">
-        <v>42313</v>
+        <v>42277</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G8" s="9">
-        <v>42291</v>
+        <v>42275</v>
+      </c>
+      <c r="H8" s="9">
+        <v>42275</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D9" s="9">
-        <v>42285</v>
+        <v>42278</v>
       </c>
       <c r="E9" s="9">
-        <v>42305</v>
+        <v>42293</v>
       </c>
       <c r="F9">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G9" s="9">
-        <v>42285</v>
+        <v>42291</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D10" s="9">
-        <v>42313</v>
+        <v>42285</v>
       </c>
       <c r="E10" s="9">
-        <v>42327</v>
+        <v>42296</v>
       </c>
       <c r="F10">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="G10" s="9">
+        <v>42285</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="D11" s="9">
-        <v>42313</v>
+        <v>42292</v>
       </c>
       <c r="E11" s="9">
-        <v>42327</v>
+        <v>42301</v>
       </c>
       <c r="F11">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="9">
-        <v>42320</v>
-      </c>
-      <c r="E13" s="9">
-        <v>42334</v>
-      </c>
-      <c r="F13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="9">
-        <v>42329</v>
-      </c>
-      <c r="E14" s="9">
-        <v>42350</v>
-      </c>
-      <c r="F14">
-        <v>3</v>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="9">
+        <v>42309</v>
+      </c>
+      <c r="E12" s="9">
+        <v>42327</v>
+      </c>
+      <c r="F12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D15" s="9">
-        <v>42341</v>
+        <v>42320</v>
       </c>
       <c r="E15" s="9">
-        <v>42352</v>
+        <v>42334</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>22</v>
-      </c>
       <c r="D16" s="9">
-        <v>42356</v>
+        <v>42329</v>
       </c>
       <c r="E16" s="9">
-        <v>42368</v>
+        <v>42350</v>
       </c>
       <c r="F16">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="9">
-        <v>42309</v>
+        <v>42341</v>
       </c>
       <c r="E17" s="9">
-        <v>42320</v>
+        <v>42352</v>
       </c>
       <c r="F17">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
       </c>
       <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="9">
+        <v>42356</v>
+      </c>
+      <c r="E18" s="9">
+        <v>42368</v>
+      </c>
+      <c r="F18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="9">
+        <v>42309</v>
+      </c>
+      <c r="E19" s="9">
+        <v>42320</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="9">
+        <v>42297</v>
+      </c>
+      <c r="E20" s="9">
+        <v>42309</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A22" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="9">
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="9">
+        <v>42311</v>
+      </c>
+      <c r="E23" s="9">
+        <v>42314</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="9">
+        <v>42276</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24">
+        <v>10</v>
+      </c>
+      <c r="G24" s="9">
+        <v>42275</v>
+      </c>
+      <c r="H24" t="s">
+        <v>30</v>
+      </c>
+      <c r="I24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="9">
         <v>42297</v>
       </c>
-      <c r="E18" s="9">
-        <v>42309</v>
-      </c>
-      <c r="F18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A20" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="9">
+      <c r="E25" s="9">
         <v>42311</v>
       </c>
-      <c r="E21" s="9">
-        <v>42314</v>
-      </c>
-      <c r="F21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="9">
-        <v>42276</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="9">
-        <v>42297</v>
-      </c>
-      <c r="E23" s="9">
-        <v>42311</v>
-      </c>
-      <c r="F23">
+      <c r="F25">
         <v>4</v>
       </c>
     </row>

--- a/Feinplanung(Grow It).xlsx
+++ b/Feinplanung(Grow It).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
   <si>
     <t>Feinplanung</t>
   </si>
@@ -79,15 +79,9 @@
     <t>Pflegearten</t>
   </si>
   <si>
-    <t>Matus</t>
-  </si>
-  <si>
     <t>Xiang</t>
   </si>
   <si>
-    <t>Wang</t>
-  </si>
-  <si>
     <t>Upgrades</t>
   </si>
   <si>
@@ -106,15 +100,9 @@
     <t>Xiang, Matus, Wang</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Spieloberfläche, Tastenplatzierung</t>
   </si>
   <si>
-    <t>Hauptmenü, Hintergrund, Farbgestaltung</t>
-  </si>
-  <si>
     <t>Landschaften, Aussehen (animierend?)</t>
   </si>
   <si>
@@ -124,15 +112,9 @@
     <t>Matus, Wang, Xiang</t>
   </si>
   <si>
-    <t>1 h</t>
-  </si>
-  <si>
     <t>Entwürfe</t>
   </si>
   <si>
-    <t>5h</t>
-  </si>
-  <si>
     <t>Xiang, Matus</t>
   </si>
   <si>
@@ -146,6 +128,48 @@
   </si>
   <si>
     <t>Matus, Xiang</t>
+  </si>
+  <si>
+    <t>31.09.2015</t>
+  </si>
+  <si>
+    <t>Hauptmenü, Hintergrund</t>
+  </si>
+  <si>
+    <t>3 h</t>
+  </si>
+  <si>
+    <t>20 min</t>
+  </si>
+  <si>
+    <t>2 h</t>
+  </si>
+  <si>
+    <t>5 h</t>
+  </si>
+  <si>
+    <t>Wang, Xiang</t>
+  </si>
+  <si>
+    <t>7 h</t>
+  </si>
+  <si>
+    <t>10 h</t>
+  </si>
+  <si>
+    <t>4 h</t>
+  </si>
+  <si>
+    <t>6 h</t>
+  </si>
+  <si>
+    <t>Pflichtenheft</t>
+  </si>
+  <si>
+    <t>Kapitel 2</t>
+  </si>
+  <si>
+    <t>3h</t>
   </si>
 </sst>
 </file>
@@ -286,11 +310,11 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -595,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,7 +669,7 @@
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -672,111 +696,121 @@
     </row>
     <row r="6" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="12"/>
+        <v>32</v>
+      </c>
+      <c r="B6" s="11"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D7" s="9">
-        <v>42268</v>
+        <v>42270</v>
       </c>
       <c r="E7" s="9">
-        <v>42275</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
+        <v>42271</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
       </c>
       <c r="G7" s="9">
-        <v>42274</v>
+        <v>42277</v>
+      </c>
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D8" s="9">
-        <v>42275</v>
-      </c>
-      <c r="E8" s="9">
         <v>42277</v>
       </c>
-      <c r="F8">
-        <v>2</v>
+      <c r="E8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
       </c>
       <c r="G8" s="9">
-        <v>42275</v>
+        <v>42277</v>
       </c>
       <c r="H8" s="9">
-        <v>42275</v>
+        <v>42277</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="9">
+        <v>42285</v>
+      </c>
+      <c r="E9" s="9">
+        <v>42286</v>
+      </c>
+      <c r="F9" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="9">
-        <v>42278</v>
-      </c>
-      <c r="E9" s="9">
-        <v>42293</v>
-      </c>
-      <c r="F9">
-        <v>10</v>
-      </c>
       <c r="G9" s="9">
-        <v>42291</v>
+        <v>42285</v>
+      </c>
+      <c r="H9" s="9">
+        <v>42286</v>
+      </c>
+      <c r="I9" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D10" s="9">
-        <v>42285</v>
+        <v>42291</v>
       </c>
       <c r="E10" s="9">
-        <v>42296</v>
-      </c>
-      <c r="F10">
-        <v>12</v>
-      </c>
-      <c r="G10" s="9">
-        <v>42285</v>
-      </c>
+        <v>42292</v>
+      </c>
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D11" s="9">
         <v>42292</v>
       </c>
       <c r="E11" s="9">
-        <v>42301</v>
-      </c>
-      <c r="F11">
-        <v>7</v>
+        <v>42298</v>
+      </c>
+      <c r="F11" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -784,7 +818,7 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D12" s="9">
         <v>42309</v>
@@ -792,8 +826,8 @@
       <c r="E12" s="9">
         <v>42327</v>
       </c>
-      <c r="F12">
-        <v>7</v>
+      <c r="F12" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
@@ -805,11 +839,8 @@
       <c r="A15" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D15" s="9">
         <v>42320</v>
@@ -817,19 +848,16 @@
       <c r="E15" s="9">
         <v>42334</v>
       </c>
-      <c r="F15">
-        <v>10</v>
+      <c r="F15" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D16" s="9">
         <v>42329</v>
@@ -837,19 +865,16 @@
       <c r="E16" s="9">
         <v>42350</v>
       </c>
-      <c r="F16">
-        <v>3</v>
+      <c r="F16" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D17" s="9">
         <v>42341</v>
@@ -857,19 +882,16 @@
       <c r="E17" s="9">
         <v>42352</v>
       </c>
-      <c r="F17">
-        <v>5</v>
+      <c r="F17" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D18" s="9">
         <v>42356</v>
@@ -877,19 +899,16 @@
       <c r="E18" s="9">
         <v>42368</v>
       </c>
-      <c r="F18">
-        <v>7</v>
+      <c r="F18" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D19" s="9">
         <v>42309</v>
@@ -897,19 +916,16 @@
       <c r="E19" s="9">
         <v>42320</v>
       </c>
-      <c r="F19">
-        <v>5</v>
+      <c r="F19" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B20" t="s">
-        <v>21</v>
-      </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D20" s="9">
         <v>42297</v>
@@ -917,8 +933,8 @@
       <c r="E20" s="9">
         <v>42309</v>
       </c>
-      <c r="F20">
-        <v>3</v>
+      <c r="F20" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
@@ -928,13 +944,10 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D23" s="9">
         <v>42311</v>
@@ -942,42 +955,42 @@
       <c r="E23" s="9">
         <v>42314</v>
       </c>
-      <c r="F23">
-        <v>2</v>
+      <c r="F23" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
       </c>
       <c r="D24" s="9">
-        <v>42276</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24">
-        <v>10</v>
+        <v>42284</v>
+      </c>
+      <c r="E24" s="12">
+        <v>42285</v>
+      </c>
+      <c r="F24" t="s">
+        <v>40</v>
       </c>
       <c r="G24" s="9">
-        <v>42275</v>
-      </c>
-      <c r="H24" t="s">
-        <v>30</v>
+        <v>42284</v>
+      </c>
+      <c r="H24" s="12">
+        <v>42285</v>
       </c>
       <c r="I24" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" t="s">
-        <v>29</v>
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
       </c>
       <c r="D25" s="9">
         <v>42297</v>
@@ -985,8 +998,39 @@
       <c r="E25" s="9">
         <v>42311</v>
       </c>
-      <c r="F25">
-        <v>4</v>
+      <c r="F25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A27" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="9">
+        <v>42270</v>
+      </c>
+      <c r="E28" s="9">
+        <v>42271</v>
+      </c>
+      <c r="F28" t="s">
+        <v>51</v>
+      </c>
+      <c r="G28" s="9">
+        <v>42271</v>
+      </c>
+      <c r="H28" s="9">
+        <v>42275</v>
+      </c>
+      <c r="I28" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Feinplanung(Grow It).xlsx
+++ b/Feinplanung(Grow It).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
   <si>
     <t>Feinplanung</t>
   </si>
@@ -103,9 +103,6 @@
     <t>Spieloberfläche, Tastenplatzierung</t>
   </si>
   <si>
-    <t>Landschaften, Aussehen (animierend?)</t>
-  </si>
-  <si>
     <t>Logo</t>
   </si>
   <si>
@@ -170,6 +167,12 @@
   </si>
   <si>
     <t>3h</t>
+  </si>
+  <si>
+    <t>Landschaft, Aussehen</t>
+  </si>
+  <si>
+    <t>45 min</t>
   </si>
 </sst>
 </file>
@@ -622,7 +625,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,16 +699,16 @@
     </row>
     <row r="6" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="11"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="9">
         <v>42270</v>
@@ -714,33 +717,33 @@
         <v>42271</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="9">
         <v>42277</v>
       </c>
       <c r="H7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
         <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
       </c>
       <c r="D8" s="9">
         <v>42277</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G8" s="9">
         <v>42277</v>
@@ -749,7 +752,7 @@
         <v>42277</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -757,7 +760,7 @@
         <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" s="9">
         <v>42285</v>
@@ -766,7 +769,7 @@
         <v>42286</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G9" s="9">
         <v>42285</v>
@@ -775,15 +778,15 @@
         <v>42286</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="9">
         <v>42291</v>
@@ -792,7 +795,7 @@
         <v>42292</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G10" s="9"/>
     </row>
@@ -801,7 +804,7 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" s="9">
         <v>42292</v>
@@ -810,7 +813,7 @@
         <v>42298</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -818,7 +821,7 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12" s="9">
         <v>42309</v>
@@ -827,7 +830,7 @@
         <v>42327</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
@@ -840,7 +843,7 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="9">
         <v>42320</v>
@@ -849,7 +852,7 @@
         <v>42334</v>
       </c>
       <c r="F15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -857,7 +860,7 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" s="9">
         <v>42329</v>
@@ -866,7 +869,7 @@
         <v>42350</v>
       </c>
       <c r="F16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -874,7 +877,7 @@
         <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" s="9">
         <v>42341</v>
@@ -883,7 +886,7 @@
         <v>42352</v>
       </c>
       <c r="F17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -891,7 +894,7 @@
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18" s="9">
         <v>42356</v>
@@ -900,7 +903,7 @@
         <v>42368</v>
       </c>
       <c r="F18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -908,7 +911,7 @@
         <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19" s="9">
         <v>42309</v>
@@ -917,7 +920,7 @@
         <v>42320</v>
       </c>
       <c r="F19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -925,7 +928,7 @@
         <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20" s="9">
         <v>42297</v>
@@ -934,7 +937,7 @@
         <v>42309</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
@@ -947,7 +950,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D23" s="9">
         <v>42311</v>
@@ -956,7 +959,7 @@
         <v>42314</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -973,7 +976,7 @@
         <v>42285</v>
       </c>
       <c r="F24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G24" s="9">
         <v>42284</v>
@@ -982,7 +985,7 @@
         <v>42285</v>
       </c>
       <c r="I24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -999,17 +1002,17 @@
         <v>42311</v>
       </c>
       <c r="F25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C28" t="s">
         <v>21</v>
@@ -1021,7 +1024,7 @@
         <v>42271</v>
       </c>
       <c r="F28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G28" s="9">
         <v>42271</v>
@@ -1030,7 +1033,7 @@
         <v>42275</v>
       </c>
       <c r="I28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Feinplanung(Grow It).xlsx
+++ b/Feinplanung(Grow It).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="52">
   <si>
     <t>Feinplanung</t>
   </si>
@@ -112,21 +112,6 @@
     <t>Entwürfe</t>
   </si>
   <si>
-    <t>Xiang, Matus</t>
-  </si>
-  <si>
-    <t>Xiang, Wang</t>
-  </si>
-  <si>
-    <t>Wang, Matus</t>
-  </si>
-  <si>
-    <t>Matus, Wang</t>
-  </si>
-  <si>
-    <t>Matus, Xiang</t>
-  </si>
-  <si>
     <t>31.09.2015</t>
   </si>
   <si>
@@ -145,9 +130,6 @@
     <t>5 h</t>
   </si>
   <si>
-    <t>Wang, Xiang</t>
-  </si>
-  <si>
     <t>7 h</t>
   </si>
   <si>
@@ -173,6 +155,21 @@
   </si>
   <si>
     <t>45 min</t>
+  </si>
+  <si>
+    <t>Wang</t>
+  </si>
+  <si>
+    <t>Matus</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>1 h</t>
+  </si>
+  <si>
+    <t>Feinplanung erweitert</t>
   </si>
 </sst>
 </file>
@@ -622,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,10 +702,13 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D7" s="9">
         <v>42270</v>
@@ -717,16 +717,16 @@
         <v>42271</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G7" s="9">
-        <v>42277</v>
-      </c>
-      <c r="H7" t="s">
-        <v>37</v>
+        <v>42286</v>
+      </c>
+      <c r="H7" s="9">
+        <v>42286</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -740,27 +740,30 @@
         <v>42277</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G8" s="9">
-        <v>42277</v>
+        <v>42284</v>
       </c>
       <c r="H8" s="9">
-        <v>42277</v>
+        <v>42284</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>28</v>
       </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D9" s="9">
         <v>42285</v>
@@ -769,24 +772,25 @@
         <v>42286</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G9" s="9">
         <v>42285</v>
       </c>
-      <c r="H9" s="9">
-        <v>42286</v>
-      </c>
+      <c r="H9" s="9"/>
       <c r="I9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>51</v>
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="D10" s="9">
         <v>42291</v>
@@ -795,7 +799,7 @@
         <v>42292</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G10" s="9"/>
     </row>
@@ -803,8 +807,11 @@
       <c r="A11" s="8" t="s">
         <v>15</v>
       </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D11" s="9">
         <v>42292</v>
@@ -813,15 +820,18 @@
         <v>42298</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D12" s="9">
         <v>42309</v>
@@ -830,7 +840,7 @@
         <v>42327</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
@@ -842,8 +852,11 @@
       <c r="A15" s="8" t="s">
         <v>19</v>
       </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D15" s="9">
         <v>42320</v>
@@ -852,15 +865,18 @@
         <v>42334</v>
       </c>
       <c r="F15" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D16" s="9">
         <v>42329</v>
@@ -869,15 +885,18 @@
         <v>42350</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>25</v>
       </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D17" s="9">
         <v>42341</v>
@@ -886,15 +905,18 @@
         <v>42352</v>
       </c>
       <c r="F17" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>23</v>
       </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D18" s="9">
         <v>42356</v>
@@ -903,15 +925,18 @@
         <v>42368</v>
       </c>
       <c r="F18" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>14</v>
       </c>
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D19" s="9">
         <v>42309</v>
@@ -920,15 +945,18 @@
         <v>42320</v>
       </c>
       <c r="F19" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>13</v>
       </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="D20" s="9">
         <v>42297</v>
@@ -937,7 +965,7 @@
         <v>42309</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
@@ -949,8 +977,11 @@
       <c r="A23" s="8" t="s">
         <v>22</v>
       </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D23" s="9">
         <v>42311</v>
@@ -959,7 +990,7 @@
         <v>42314</v>
       </c>
       <c r="F23" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -976,16 +1007,16 @@
         <v>42285</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G24" s="9">
-        <v>42284</v>
+        <v>42275</v>
       </c>
       <c r="H24" s="12">
-        <v>42285</v>
+        <v>42287</v>
       </c>
       <c r="I24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1002,17 +1033,17 @@
         <v>42311</v>
       </c>
       <c r="F25" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
         <v>21</v>
@@ -1024,16 +1055,41 @@
         <v>42271</v>
       </c>
       <c r="F28" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G28" s="9">
         <v>42271</v>
       </c>
       <c r="H28" s="9">
-        <v>42275</v>
+        <v>42277</v>
       </c>
       <c r="I28" t="s">
-        <v>46</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" s="9">
+        <v>42289</v>
+      </c>
+      <c r="H30" s="9">
+        <v>42291</v>
+      </c>
+      <c r="I30" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Feinplanung(Grow It).xlsx
+++ b/Feinplanung(Grow It).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
   <si>
     <t>Feinplanung</t>
   </si>
@@ -112,6 +112,21 @@
     <t>Entwürfe</t>
   </si>
   <si>
+    <t>Xiang, Matus</t>
+  </si>
+  <si>
+    <t>Xiang, Wang</t>
+  </si>
+  <si>
+    <t>Wang, Matus</t>
+  </si>
+  <si>
+    <t>Matus, Wang</t>
+  </si>
+  <si>
+    <t>Matus, Xiang</t>
+  </si>
+  <si>
     <t>31.09.2015</t>
   </si>
   <si>
@@ -130,6 +145,9 @@
     <t>5 h</t>
   </si>
   <si>
+    <t>Wang, Xiang</t>
+  </si>
+  <si>
     <t>7 h</t>
   </si>
   <si>
@@ -155,21 +173,6 @@
   </si>
   <si>
     <t>45 min</t>
-  </si>
-  <si>
-    <t>Wang</t>
-  </si>
-  <si>
-    <t>Matus</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>1 h</t>
-  </si>
-  <si>
-    <t>Feinplanung erweitert</t>
   </si>
 </sst>
 </file>
@@ -619,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,13 +705,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D7" s="9">
         <v>42270</v>
@@ -717,16 +717,16 @@
         <v>42271</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G7" s="9">
-        <v>42286</v>
-      </c>
-      <c r="H7" s="9">
-        <v>42286</v>
+        <v>42277</v>
+      </c>
+      <c r="H7" t="s">
+        <v>37</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -740,30 +740,27 @@
         <v>42277</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G8" s="9">
-        <v>42284</v>
+        <v>42277</v>
       </c>
       <c r="H8" s="9">
-        <v>42284</v>
+        <v>42277</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B9" t="s">
-        <v>47</v>
-      </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D9" s="9">
         <v>42285</v>
@@ -772,25 +769,24 @@
         <v>42286</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G9" s="9">
         <v>42285</v>
       </c>
-      <c r="H9" s="9"/>
+      <c r="H9" s="9">
+        <v>42286</v>
+      </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D10" s="9">
         <v>42291</v>
@@ -799,7 +795,7 @@
         <v>42292</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G10" s="9"/>
     </row>
@@ -807,11 +803,8 @@
       <c r="A11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
-        <v>47</v>
-      </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D11" s="9">
         <v>42292</v>
@@ -820,18 +813,15 @@
         <v>42298</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D12" s="9">
         <v>42309</v>
@@ -840,7 +830,7 @@
         <v>42327</v>
       </c>
       <c r="F12" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
@@ -852,11 +842,8 @@
       <c r="A15" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B15" t="s">
-        <v>47</v>
-      </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D15" s="9">
         <v>42320</v>
@@ -865,18 +852,15 @@
         <v>42334</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D16" s="9">
         <v>42329</v>
@@ -885,18 +869,15 @@
         <v>42350</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B17" t="s">
-        <v>48</v>
-      </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D17" s="9">
         <v>42341</v>
@@ -905,18 +886,15 @@
         <v>42352</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D18" s="9">
         <v>42356</v>
@@ -925,18 +903,15 @@
         <v>42368</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B19" t="s">
-        <v>47</v>
-      </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D19" s="9">
         <v>42309</v>
@@ -945,18 +920,15 @@
         <v>42320</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B20" t="s">
-        <v>48</v>
-      </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D20" s="9">
         <v>42297</v>
@@ -965,7 +937,7 @@
         <v>42309</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
@@ -977,11 +949,8 @@
       <c r="A23" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>48</v>
-      </c>
       <c r="C23" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D23" s="9">
         <v>42311</v>
@@ -990,7 +959,7 @@
         <v>42314</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1007,16 +976,16 @@
         <v>42285</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G24" s="9">
-        <v>42275</v>
+        <v>42284</v>
       </c>
       <c r="H24" s="12">
-        <v>42287</v>
+        <v>42285</v>
       </c>
       <c r="I24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1033,17 +1002,17 @@
         <v>42311</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C28" t="s">
         <v>21</v>
@@ -1055,41 +1024,16 @@
         <v>42271</v>
       </c>
       <c r="F28" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G28" s="9">
         <v>42271</v>
       </c>
       <c r="H28" s="9">
-        <v>42277</v>
+        <v>42275</v>
       </c>
       <c r="I28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" t="s">
-        <v>49</v>
-      </c>
-      <c r="E30" t="s">
-        <v>49</v>
-      </c>
-      <c r="G30" s="9">
-        <v>42289</v>
-      </c>
-      <c r="H30" s="9">
-        <v>42291</v>
-      </c>
-      <c r="I30" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Feinplanung(Grow It).xlsx
+++ b/Feinplanung(Grow It).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
   <si>
     <t>Feinplanung</t>
   </si>
@@ -115,18 +115,6 @@
     <t>Xiang, Matus</t>
   </si>
   <si>
-    <t>Xiang, Wang</t>
-  </si>
-  <si>
-    <t>Wang, Matus</t>
-  </si>
-  <si>
-    <t>Matus, Wang</t>
-  </si>
-  <si>
-    <t>Matus, Xiang</t>
-  </si>
-  <si>
     <t>31.09.2015</t>
   </si>
   <si>
@@ -145,9 +133,6 @@
     <t>5 h</t>
   </si>
   <si>
-    <t>Wang, Xiang</t>
-  </si>
-  <si>
     <t>7 h</t>
   </si>
   <si>
@@ -173,6 +158,33 @@
   </si>
   <si>
     <t>45 min</t>
+  </si>
+  <si>
+    <t>Kapitel 1</t>
+  </si>
+  <si>
+    <t>1h</t>
+  </si>
+  <si>
+    <t>1 h</t>
+  </si>
+  <si>
+    <t>Kapitel 3</t>
+  </si>
+  <si>
+    <t>Kapitel 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kapitel 5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xiang, </t>
+  </si>
+  <si>
+    <t>Matus</t>
+  </si>
+  <si>
+    <t>Wang</t>
   </si>
 </sst>
 </file>
@@ -622,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,10 +717,13 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D7" s="9">
         <v>42270</v>
@@ -717,16 +732,16 @@
         <v>42271</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G7" s="9">
         <v>42277</v>
       </c>
       <c r="H7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -740,10 +755,10 @@
         <v>42277</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G8" s="9">
         <v>42277</v>
@@ -752,15 +767,18 @@
         <v>42277</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>28</v>
       </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D9" s="9">
         <v>42285</v>
@@ -769,7 +787,7 @@
         <v>42286</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G9" s="9">
         <v>42285</v>
@@ -778,15 +796,18 @@
         <v>42286</v>
       </c>
       <c r="I9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>51</v>
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="D10" s="9">
         <v>42291</v>
@@ -795,16 +816,21 @@
         <v>42292</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="9"/>
+        <v>35</v>
+      </c>
+      <c r="G10" s="9">
+        <v>42298</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>15</v>
       </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D11" s="9">
         <v>42292</v>
@@ -813,15 +839,18 @@
         <v>42298</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D12" s="9">
         <v>42309</v>
@@ -830,7 +859,7 @@
         <v>42327</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
@@ -842,8 +871,11 @@
       <c r="A15" s="8" t="s">
         <v>19</v>
       </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D15" s="9">
         <v>42320</v>
@@ -852,15 +884,18 @@
         <v>42334</v>
       </c>
       <c r="F15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D16" s="9">
         <v>42329</v>
@@ -869,15 +904,18 @@
         <v>42350</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>25</v>
       </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D17" s="9">
         <v>42341</v>
@@ -886,15 +924,18 @@
         <v>42352</v>
       </c>
       <c r="F17" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>23</v>
       </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D18" s="9">
         <v>42356</v>
@@ -903,15 +944,18 @@
         <v>42368</v>
       </c>
       <c r="F18" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>14</v>
       </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D19" s="9">
         <v>42309</v>
@@ -920,15 +964,18 @@
         <v>42320</v>
       </c>
       <c r="F19" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>13</v>
       </c>
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="D20" s="9">
         <v>42297</v>
@@ -937,7 +984,7 @@
         <v>42309</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
@@ -959,7 +1006,7 @@
         <v>42314</v>
       </c>
       <c r="F23" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -976,7 +1023,7 @@
         <v>42285</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G24" s="9">
         <v>42284</v>
@@ -985,7 +1032,7 @@
         <v>42285</v>
       </c>
       <c r="I24" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1002,17 +1049,17 @@
         <v>42311</v>
       </c>
       <c r="F25" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
         <v>21</v>
@@ -1024,7 +1071,7 @@
         <v>42271</v>
       </c>
       <c r="F28" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G28" s="9">
         <v>42271</v>
@@ -1033,7 +1080,48 @@
         <v>42275</v>
       </c>
       <c r="I28" t="s">
-        <v>46</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="9">
+        <v>42284</v>
+      </c>
+      <c r="E29" s="9">
+        <v>42285</v>
+      </c>
+      <c r="F29" t="s">
+        <v>49</v>
+      </c>
+      <c r="G29" s="9">
+        <v>42298</v>
+      </c>
+      <c r="H29" s="9">
+        <v>42298</v>
+      </c>
+      <c r="I29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Feinplanung(Grow It).xlsx
+++ b/Feinplanung(Grow It).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="58">
   <si>
     <t>Feinplanung</t>
   </si>
@@ -124,9 +124,6 @@
     <t>3 h</t>
   </si>
   <si>
-    <t>20 min</t>
-  </si>
-  <si>
     <t>2 h</t>
   </si>
   <si>
@@ -185,6 +182,12 @@
   </si>
   <si>
     <t>Wang</t>
+  </si>
+  <si>
+    <t>50 min</t>
+  </si>
+  <si>
+    <t>2 1/2 h</t>
   </si>
 </sst>
 </file>
@@ -636,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,7 +723,7 @@
         <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -741,7 +744,7 @@
         <v>33</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -767,7 +770,7 @@
         <v>42277</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -775,7 +778,7 @@
         <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
@@ -796,18 +799,18 @@
         <v>42286</v>
       </c>
       <c r="I9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
         <v>55</v>
-      </c>
-      <c r="C10" t="s">
-        <v>56</v>
       </c>
       <c r="D10" s="9">
         <v>42291</v>
@@ -820,6 +823,12 @@
       </c>
       <c r="G10" s="9">
         <v>42298</v>
+      </c>
+      <c r="H10" s="9">
+        <v>42299</v>
+      </c>
+      <c r="I10" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -827,10 +836,10 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11" s="9">
         <v>42292</v>
@@ -840,6 +849,9 @@
       </c>
       <c r="F11" t="s">
         <v>35</v>
+      </c>
+      <c r="G11" s="9">
+        <v>42313</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -850,7 +862,7 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12" s="9">
         <v>42309</v>
@@ -859,7 +871,7 @@
         <v>42327</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
@@ -872,10 +884,10 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D15" s="9">
         <v>42320</v>
@@ -884,7 +896,7 @@
         <v>42334</v>
       </c>
       <c r="F15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -895,7 +907,7 @@
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D16" s="9">
         <v>42329</v>
@@ -912,10 +924,10 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" s="9">
         <v>42341</v>
@@ -924,7 +936,7 @@
         <v>42352</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -935,7 +947,7 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="9">
         <v>42356</v>
@@ -944,7 +956,7 @@
         <v>42368</v>
       </c>
       <c r="F18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -952,10 +964,10 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" s="9">
         <v>42309</v>
@@ -964,7 +976,7 @@
         <v>42320</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -972,10 +984,10 @@
         <v>13</v>
       </c>
       <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" t="s">
         <v>55</v>
-      </c>
-      <c r="C20" t="s">
-        <v>56</v>
       </c>
       <c r="D20" s="9">
         <v>42297</v>
@@ -1006,7 +1018,7 @@
         <v>42314</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1049,17 +1061,17 @@
         <v>42311</v>
       </c>
       <c r="F25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
         <v>21</v>
@@ -1071,7 +1083,7 @@
         <v>42271</v>
       </c>
       <c r="F28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G28" s="9">
         <v>42271</v>
@@ -1080,12 +1092,12 @@
         <v>42275</v>
       </c>
       <c r="I28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C29" t="s">
         <v>21</v>
@@ -1097,7 +1109,7 @@
         <v>42285</v>
       </c>
       <c r="F29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G29" s="9">
         <v>42298</v>
@@ -1106,22 +1118,22 @@
         <v>42298</v>
       </c>
       <c r="I29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Feinplanung(Grow It).xlsx
+++ b/Feinplanung(Grow It).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -351,9 +351,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -391,9 +391,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -428,7 +428,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -463,7 +463,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -640,7 +640,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -873,6 +873,9 @@
       <c r="F12" t="s">
         <v>41</v>
       </c>
+      <c r="G12" s="9">
+        <v>42312</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">

--- a/Feinplanung(Grow It).xlsx
+++ b/Feinplanung(Grow It).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="60">
   <si>
     <t>Feinplanung</t>
   </si>
@@ -188,6 +188,12 @@
   </si>
   <si>
     <t>2 1/2 h</t>
+  </si>
+  <si>
+    <t>25.20.2015</t>
+  </si>
+  <si>
+    <t>2h</t>
   </si>
 </sst>
 </file>
@@ -639,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -998,6 +1004,15 @@
       <c r="F20" t="s">
         <v>35</v>
       </c>
+      <c r="G20" s="9">
+        <v>42297</v>
+      </c>
+      <c r="H20" t="s">
+        <v>58</v>
+      </c>
+      <c r="I20" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="22" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">

--- a/Feinplanung(Grow It).xlsx
+++ b/Feinplanung(Grow It).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
   <si>
     <t>Feinplanung</t>
   </si>
@@ -115,9 +115,6 @@
     <t>Xiang, Matus</t>
   </si>
   <si>
-    <t>31.09.2015</t>
-  </si>
-  <si>
     <t>Hauptmenü, Hintergrund</t>
   </si>
   <si>
@@ -154,9 +151,6 @@
     <t>Landschaft, Aussehen</t>
   </si>
   <si>
-    <t>45 min</t>
-  </si>
-  <si>
     <t>Kapitel 1</t>
   </si>
   <si>
@@ -184,16 +178,13 @@
     <t>Wang</t>
   </si>
   <si>
-    <t>50 min</t>
-  </si>
-  <si>
     <t>2 1/2 h</t>
   </si>
   <si>
-    <t>25.20.2015</t>
-  </si>
-  <si>
-    <t>2h</t>
+    <t>30.2.2015</t>
+  </si>
+  <si>
+    <t>2h 45 min</t>
   </si>
 </sst>
 </file>
@@ -645,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,10 +717,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -741,13 +732,13 @@
         <v>42271</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G7" s="9">
-        <v>42277</v>
-      </c>
-      <c r="H7" t="s">
-        <v>33</v>
+        <v>42271</v>
+      </c>
+      <c r="H7" s="9">
+        <v>42279</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>36</v>
@@ -763,20 +754,20 @@
       <c r="D8" s="9">
         <v>42277</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>33</v>
+      <c r="E8" s="9">
+        <v>42285</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G8" s="9">
-        <v>42277</v>
+        <v>42279</v>
       </c>
       <c r="H8" s="9">
-        <v>42277</v>
+        <v>42291</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -784,57 +775,57 @@
         <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="9">
-        <v>42285</v>
+        <v>42316</v>
       </c>
       <c r="E9" s="9">
-        <v>42286</v>
+        <v>42322</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G9" s="9">
-        <v>42285</v>
+        <v>42297</v>
       </c>
       <c r="H9" s="9">
-        <v>42286</v>
+        <v>42317</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="9">
+        <v>42322</v>
+      </c>
+      <c r="E10" s="9">
+        <v>42328</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="9">
+        <v>42322</v>
+      </c>
+      <c r="H10" s="9">
+        <v>42330</v>
+      </c>
+      <c r="I10" t="s">
         <v>54</v>
-      </c>
-      <c r="C10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="9">
-        <v>42291</v>
-      </c>
-      <c r="E10" s="9">
-        <v>42292</v>
-      </c>
-      <c r="F10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="9">
-        <v>42298</v>
-      </c>
-      <c r="H10" s="9">
-        <v>42299</v>
-      </c>
-      <c r="I10" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -842,22 +833,22 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D11" s="9">
-        <v>42292</v>
+        <v>42328</v>
       </c>
       <c r="E11" s="9">
-        <v>42298</v>
+        <v>42346</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G11" s="9">
-        <v>42313</v>
+        <v>42332</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -868,16 +859,16 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D12" s="9">
-        <v>42309</v>
+        <v>42346</v>
       </c>
       <c r="E12" s="9">
-        <v>42327</v>
+        <v>42355</v>
       </c>
       <c r="F12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
@@ -890,19 +881,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D15" s="9">
-        <v>42320</v>
+        <v>42016</v>
       </c>
       <c r="E15" s="9">
-        <v>42334</v>
+        <v>42030</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -913,16 +904,16 @@
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D16" s="9">
-        <v>42329</v>
+        <v>42025</v>
       </c>
       <c r="E16" s="9">
-        <v>42350</v>
+        <v>42047</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -930,19 +921,19 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D17" s="9">
-        <v>42341</v>
+        <v>42038</v>
       </c>
       <c r="E17" s="9">
-        <v>42352</v>
+        <v>42049</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -953,16 +944,16 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D18" s="9">
-        <v>42356</v>
-      </c>
-      <c r="E18" s="9">
-        <v>42368</v>
+        <v>42053</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -970,19 +961,19 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D19" s="9">
-        <v>42309</v>
+        <v>42005</v>
       </c>
       <c r="E19" s="9">
-        <v>42320</v>
+        <v>42016</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -990,29 +981,21 @@
         <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D20" s="9">
-        <v>42297</v>
+        <v>42358</v>
       </c>
       <c r="E20" s="9">
-        <v>42309</v>
+        <v>42005</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" s="9">
-        <v>42297</v>
-      </c>
-      <c r="H20" t="s">
-        <v>58</v>
-      </c>
-      <c r="I20" t="s">
-        <v>59</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="G20" s="9"/>
     </row>
     <row r="22" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
@@ -1033,7 +1016,7 @@
         <v>42314</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1050,7 +1033,7 @@
         <v>42285</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G24" s="9">
         <v>42284</v>
@@ -1059,7 +1042,7 @@
         <v>42285</v>
       </c>
       <c r="I24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1076,17 +1059,17 @@
         <v>42311</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
         <v>21</v>
@@ -1098,7 +1081,7 @@
         <v>42271</v>
       </c>
       <c r="F28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G28" s="9">
         <v>42271</v>
@@ -1107,12 +1090,12 @@
         <v>42275</v>
       </c>
       <c r="I28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C29" t="s">
         <v>21</v>
@@ -1124,7 +1107,7 @@
         <v>42285</v>
       </c>
       <c r="F29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G29" s="9">
         <v>42298</v>
@@ -1133,22 +1116,22 @@
         <v>42298</v>
       </c>
       <c r="I29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Feinplanung(Grow It).xlsx
+++ b/Feinplanung(Grow It).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="60">
   <si>
     <t>Feinplanung</t>
   </si>
@@ -154,9 +154,6 @@
     <t>Kapitel 1</t>
   </si>
   <si>
-    <t>1h</t>
-  </si>
-  <si>
     <t>1 h</t>
   </si>
   <si>
@@ -181,10 +178,22 @@
     <t>2 1/2 h</t>
   </si>
   <si>
-    <t>30.2.2015</t>
-  </si>
-  <si>
     <t>2h 45 min</t>
+  </si>
+  <si>
+    <t>30.02.2015</t>
+  </si>
+  <si>
+    <t>Wang,Matus</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>6h</t>
+  </si>
+  <si>
+    <t>2h</t>
   </si>
 </sst>
 </file>
@@ -636,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,7 +729,7 @@
         <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -775,7 +784,7 @@
         <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
@@ -796,7 +805,7 @@
         <v>42317</v>
       </c>
       <c r="I9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -804,10 +813,10 @@
         <v>44</v>
       </c>
       <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
         <v>52</v>
-      </c>
-      <c r="C10" t="s">
-        <v>53</v>
       </c>
       <c r="D10" s="9">
         <v>42322</v>
@@ -825,7 +834,7 @@
         <v>42330</v>
       </c>
       <c r="I10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -833,10 +842,10 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" s="9">
         <v>42328</v>
@@ -859,7 +868,7 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" s="9">
         <v>42346</v>
@@ -869,6 +878,9 @@
       </c>
       <c r="F12" t="s">
         <v>40</v>
+      </c>
+      <c r="G12" s="9">
+        <v>42338</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
@@ -881,10 +893,10 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D15" s="9">
         <v>42016</v>
@@ -904,7 +916,7 @@
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D16" s="9">
         <v>42025</v>
@@ -921,10 +933,10 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="9">
         <v>42038</v>
@@ -944,7 +956,7 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="9">
         <v>42053</v>
@@ -961,10 +973,10 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="9">
         <v>42005</v>
@@ -981,10 +993,10 @@
         <v>13</v>
       </c>
       <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" t="s">
         <v>52</v>
-      </c>
-      <c r="C20" t="s">
-        <v>53</v>
       </c>
       <c r="D20" s="9">
         <v>42358</v>
@@ -1107,7 +1119,7 @@
         <v>42285</v>
       </c>
       <c r="F29" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="G29" s="9">
         <v>42298</v>
@@ -1116,22 +1128,43 @@
         <v>42298</v>
       </c>
       <c r="I29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="C30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="9">
+        <v>42301</v>
+      </c>
+      <c r="E30" s="9">
+        <v>42320</v>
+      </c>
+      <c r="F30" t="s">
+        <v>58</v>
+      </c>
+      <c r="G30" s="9">
+        <v>42326</v>
+      </c>
+      <c r="H30" t="s">
+        <v>57</v>
+      </c>
+      <c r="I30" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Feinplanung(Grow It).xlsx
+++ b/Feinplanung(Grow It).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
   <si>
     <t>Feinplanung</t>
   </si>
@@ -154,6 +154,9 @@
     <t>Kapitel 1</t>
   </si>
   <si>
+    <t>1h</t>
+  </si>
+  <si>
     <t>1 h</t>
   </si>
   <si>
@@ -181,19 +184,7 @@
     <t>2h 45 min</t>
   </si>
   <si>
-    <t>30.02.2015</t>
-  </si>
-  <si>
-    <t>Wang,Matus</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>6h</t>
-  </si>
-  <si>
-    <t>2h</t>
+    <t>30.02.2016</t>
   </si>
 </sst>
 </file>
@@ -645,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,7 +720,7 @@
         <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -784,7 +775,7 @@
         <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
@@ -805,7 +796,7 @@
         <v>42317</v>
       </c>
       <c r="I9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -813,10 +804,10 @@
         <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D10" s="9">
         <v>42322</v>
@@ -834,7 +825,7 @@
         <v>42330</v>
       </c>
       <c r="I10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -842,10 +833,10 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
         <v>52</v>
-      </c>
-      <c r="C11" t="s">
-        <v>51</v>
       </c>
       <c r="D11" s="9">
         <v>42328</v>
@@ -868,7 +859,7 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D12" s="9">
         <v>42346</v>
@@ -878,9 +869,6 @@
       </c>
       <c r="F12" t="s">
         <v>40</v>
-      </c>
-      <c r="G12" s="9">
-        <v>42338</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
@@ -893,16 +881,16 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
         <v>52</v>
       </c>
-      <c r="C15" t="s">
-        <v>51</v>
-      </c>
       <c r="D15" s="9">
-        <v>42016</v>
+        <v>42381</v>
       </c>
       <c r="E15" s="9">
-        <v>42030</v>
+        <v>42395</v>
       </c>
       <c r="F15" t="s">
         <v>38</v>
@@ -916,13 +904,13 @@
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D16" s="9">
-        <v>42025</v>
+        <v>42390</v>
       </c>
       <c r="E16" s="9">
-        <v>42047</v>
+        <v>42412</v>
       </c>
       <c r="F16" t="s">
         <v>34</v>
@@ -933,16 +921,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
         <v>51</v>
       </c>
-      <c r="C17" t="s">
-        <v>50</v>
-      </c>
       <c r="D17" s="9">
-        <v>42038</v>
+        <v>42391</v>
       </c>
       <c r="E17" s="9">
-        <v>42049</v>
+        <v>42414</v>
       </c>
       <c r="F17" t="s">
         <v>36</v>
@@ -956,13 +944,13 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="9">
-        <v>42053</v>
+        <v>42392</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F18" t="s">
         <v>37</v>
@@ -973,16 +961,16 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
         <v>52</v>
       </c>
-      <c r="C19" t="s">
-        <v>51</v>
-      </c>
       <c r="D19" s="9">
-        <v>42005</v>
+        <v>42370</v>
       </c>
       <c r="E19" s="9">
-        <v>42016</v>
+        <v>42381</v>
       </c>
       <c r="F19" t="s">
         <v>36</v>
@@ -993,16 +981,16 @@
         <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D20" s="9">
-        <v>42358</v>
+        <v>42363</v>
       </c>
       <c r="E20" s="9">
-        <v>42005</v>
+        <v>42370</v>
       </c>
       <c r="F20" t="s">
         <v>34</v>
@@ -1119,7 +1107,7 @@
         <v>42285</v>
       </c>
       <c r="F29" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="G29" s="9">
         <v>42298</v>
@@ -1128,43 +1116,22 @@
         <v>42298</v>
       </c>
       <c r="I29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="9">
-        <v>42301</v>
-      </c>
-      <c r="E30" s="9">
-        <v>42320</v>
-      </c>
-      <c r="F30" t="s">
-        <v>58</v>
-      </c>
-      <c r="G30" s="9">
-        <v>42326</v>
-      </c>
-      <c r="H30" t="s">
-        <v>57</v>
-      </c>
-      <c r="I30" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Feinplanung(Grow It).xlsx
+++ b/Feinplanung(Grow It).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="58">
   <si>
     <t>Feinplanung</t>
   </si>
@@ -184,7 +184,10 @@
     <t>2h 45 min</t>
   </si>
   <si>
-    <t>30.02.2016</t>
+    <t>5h</t>
+  </si>
+  <si>
+    <t>16 h</t>
   </si>
 </sst>
 </file>
@@ -332,7 +335,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -348,9 +351,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -388,9 +391,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -425,7 +428,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -460,7 +463,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -637,10 +640,10 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
@@ -887,10 +890,10 @@
         <v>52</v>
       </c>
       <c r="D15" s="9">
-        <v>42381</v>
+        <v>42429</v>
       </c>
       <c r="E15" s="9">
-        <v>42395</v>
+        <v>42453</v>
       </c>
       <c r="F15" t="s">
         <v>38</v>
@@ -907,10 +910,10 @@
         <v>53</v>
       </c>
       <c r="D16" s="9">
-        <v>42390</v>
+        <v>42421</v>
       </c>
       <c r="E16" s="9">
-        <v>42412</v>
+        <v>42429</v>
       </c>
       <c r="F16" t="s">
         <v>34</v>
@@ -927,10 +930,10 @@
         <v>51</v>
       </c>
       <c r="D17" s="9">
-        <v>42391</v>
+        <v>42430</v>
       </c>
       <c r="E17" s="9">
-        <v>42414</v>
+        <v>42443</v>
       </c>
       <c r="F17" t="s">
         <v>36</v>
@@ -949,8 +952,8 @@
       <c r="D18" s="9">
         <v>42392</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>56</v>
+      <c r="E18" s="9">
+        <v>42429</v>
       </c>
       <c r="F18" t="s">
         <v>37</v>
@@ -967,13 +970,16 @@
         <v>52</v>
       </c>
       <c r="D19" s="9">
-        <v>42370</v>
+        <v>42381</v>
       </c>
       <c r="E19" s="9">
-        <v>42381</v>
+        <v>42394</v>
       </c>
       <c r="F19" t="s">
         <v>36</v>
+      </c>
+      <c r="G19" s="9">
+        <v>42410</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -987,15 +993,23 @@
         <v>53</v>
       </c>
       <c r="D20" s="9">
-        <v>42363</v>
+        <v>42375</v>
       </c>
       <c r="E20" s="9">
-        <v>42370</v>
+        <v>42382</v>
       </c>
       <c r="F20" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="9"/>
+      <c r="G20" s="9">
+        <v>42384</v>
+      </c>
+      <c r="H20" s="9">
+        <v>42399</v>
+      </c>
+      <c r="I20" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="22" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
@@ -1122,6 +1136,27 @@
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>48</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="9">
+        <v>42293</v>
+      </c>
+      <c r="E30" s="9">
+        <v>42320</v>
+      </c>
+      <c r="F30" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30" s="9">
+        <v>42302</v>
+      </c>
+      <c r="H30" s="9">
+        <v>42355</v>
+      </c>
+      <c r="I30" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
